--- a/medicine/Enfance/Maison_de_refuge_pour_l'enfance_israélite/Maison_de_refuge_pour_l'enfance_israélite.xlsx
+++ b/medicine/Enfance/Maison_de_refuge_pour_l'enfance_israélite/Maison_de_refuge_pour_l'enfance_israélite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maison_de_refuge_pour_l%27enfance_isra%C3%A9lite</t>
+          <t>Maison_de_refuge_pour_l'enfance_israélite</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Maison de refuge pour l'enfance israélite (le Refuge israélite de Neuilly) est un foyer créé en juillet 1866 par Coralie Cahen, d'abord à Romainville puis à Neuilly. Durant la Seconde Guerre mondiale, il est replié au château de Chaumont (La Serre-Bussière-Vieille (Creuse). Il ferme ses portes en 1985.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maison_de_refuge_pour_l%27enfance_isra%C3%A9lite</t>
+          <t>Maison_de_refuge_pour_l'enfance_israélite</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,23 +525,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">XIXe siècle
-Romainville
-La maison de refuge pour l'enfance israélite est créée en juillet 1866[1] par Coralie Cahen[2] et accueille aussi des prostituées et leurs enfants. Le refuge est situé à Romainville puis est transféré à Neuilly[3].
-Neuilly-sur-Seine
-À Neuilly-sur-Seine, le refuge est établi boulevard Eugène (aujourd'hui, boulevard Victor-Hugo) puis déplacé en 1883 au 19, boulevard de la Saussaye (Alfred-Philibert Aldrophe architecte), où il existe jusque dans les années 1980[3].
-Le rabbin de Neuilly-sur-Seine, Simon Debré, enseigne au refuge de Neuilly[4].
-Seconde Guerre mondiale
-Crocq
-Le refuge de Neuilly est relocalisé en août 1939 à Crocq (Creuse)[5].
-Château de Chaumont
-Toujours en 1939, le refuge est transféré au château de Chaumont (La Serre-Bussière-Vieille), loué à l'Œuvre de secours aux enfants (OSE).
-L'éducatrice et résistante juive Lotte Schwarz[6],[7] dirige le refuge de novembre 1939 à juin 1942[8].
-Louis Aron et son épouse sont les directeurs jusqu'à la Libération[8].
-De 1940 à 1942, Popeck, âgé de quatre ans, trouve refuge au château[9].
-À l'entrée de la rue de Chaumont, une stèle commémorative rappelle que des familles et des enfants juifs y ont été « accueillis et cachés » de 1940 à 1945.
-Après la Seconde Guerre mondiale
-Le refuge, de retour à Neuilly, abrite de nombreux jeunes juifs isolés, sans famille, après la Seconde Guerre mondiale puis après l'indépendance de l'Algérie.
+          <t>XIXe siècle</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Romainville</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maison de refuge pour l'enfance israélite est créée en juillet 1866 par Coralie Cahen et accueille aussi des prostituées et leurs enfants. Le refuge est situé à Romainville puis est transféré à Neuilly.
 </t>
         </is>
       </c>
@@ -540,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maison_de_refuge_pour_l%27enfance_isra%C3%A9lite</t>
+          <t>Maison_de_refuge_pour_l'enfance_israélite</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,14 +561,181 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>XIXe siècle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Neuilly-sur-Seine</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À Neuilly-sur-Seine, le refuge est établi boulevard Eugène (aujourd'hui, boulevard Victor-Hugo) puis déplacé en 1883 au 19, boulevard de la Saussaye (Alfred-Philibert Aldrophe architecte), où il existe jusque dans les années 1980.
+Le rabbin de Neuilly-sur-Seine, Simon Debré, enseigne au refuge de Neuilly.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Maison_de_refuge_pour_l'enfance_israélite</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maison_de_refuge_pour_l%27enfance_isra%C3%A9lite</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Seconde Guerre mondiale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Crocq</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le refuge de Neuilly est relocalisé en août 1939 à Crocq (Creuse).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Maison_de_refuge_pour_l'enfance_israélite</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maison_de_refuge_pour_l%27enfance_isra%C3%A9lite</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Seconde Guerre mondiale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Château de Chaumont</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toujours en 1939, le refuge est transféré au château de Chaumont (La Serre-Bussière-Vieille), loué à l'Œuvre de secours aux enfants (OSE).
+L'éducatrice et résistante juive Lotte Schwarz, dirige le refuge de novembre 1939 à juin 1942.
+Louis Aron et son épouse sont les directeurs jusqu'à la Libération.
+De 1940 à 1942, Popeck, âgé de quatre ans, trouve refuge au château.
+À l'entrée de la rue de Chaumont, une stèle commémorative rappelle que des familles et des enfants juifs y ont été « accueillis et cachés » de 1940 à 1945.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Maison_de_refuge_pour_l'enfance_israélite</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maison_de_refuge_pour_l%27enfance_isra%C3%A9lite</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Après la Seconde Guerre mondiale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le refuge, de retour à Neuilly, abrite de nombreux jeunes juifs isolés, sans famille, après la Seconde Guerre mondiale puis après l'indépendance de l'Algérie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Maison_de_refuge_pour_l'enfance_israélite</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maison_de_refuge_pour_l%27enfance_isra%C3%A9lite</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Direction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Suivant Lotte Schwarz, Louis Aron[10] dirige la maison israélite pour l'enfance, avec l'aide de son épouse Yvonne de 1939 à 1946[11]. Il dirige le refuge à Neuilly-sur-Seine en 1939, puis à Crocq de 1939 à 1942, et ensuite à Chaumont. Avec l'aide de Joseph Millner, la comptabilité des enfants est maquillée, en dépit des ordres reçus de l'UGIF[12],[13].
-Une centaine de jeunes filles de 5 à 20 ans sont protégées. Aucune n'est arrêtée durant la guerre[5].
-Elisabeth Hirsch en 1949 accepte de diriger jusqu'à sa retraite le refuge de Neuilly, remis en état par les Éclaireuses et éclaireurs israélites de France[14].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suivant Lotte Schwarz, Louis Aron dirige la maison israélite pour l'enfance, avec l'aide de son épouse Yvonne de 1939 à 1946. Il dirige le refuge à Neuilly-sur-Seine en 1939, puis à Crocq de 1939 à 1942, et ensuite à Chaumont. Avec l'aide de Joseph Millner, la comptabilité des enfants est maquillée, en dépit des ordres reçus de l'UGIF,.
+Une centaine de jeunes filles de 5 à 20 ans sont protégées. Aucune n'est arrêtée durant la guerre.
+Elisabeth Hirsch en 1949 accepte de diriger jusqu'à sa retraite le refuge de Neuilly, remis en état par les Éclaireuses et éclaireurs israélites de France.
 </t>
         </is>
       </c>
